--- a/Interactive_dashboard/other_findings.xlsx
+++ b/Interactive_dashboard/other_findings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\NISR\Hackathon2023\Interactive_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1E3FC2-4BDF-4AE4-9398-79196BE11DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03327ABA-2E90-4BCD-B114-0CD5DE1CDB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{010EB460-5497-4C99-B6F1-80D82973F95F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="7" xr2:uid="{010EB460-5497-4C99-B6F1-80D82973F95F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2302,8 +2302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF492EB-0C50-4FB9-8A39-6AFFBA543650}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3155,8 +3155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F338FB6-06CE-4089-84AB-BEF49E834DD9}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3231,7 +3231,7 @@
       <c r="T1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="14" t="s">
         <v>61</v>
       </c>
       <c r="V1" s="8" t="s">

--- a/Interactive_dashboard/other_findings.xlsx
+++ b/Interactive_dashboard/other_findings.xlsx
@@ -8,16 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\NISR\Hackathon2023\Interactive_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138D3DE1-BE07-4CA0-B394-09A4B97D402C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1977A9-C7E1-4B87-B589-FBA11158B3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{010EB460-5497-4C99-B6F1-80D82973F95F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="12" activeTab="17" xr2:uid="{010EB460-5497-4C99-B6F1-80D82973F95F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet17" sheetId="17" r:id="rId3"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId4"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId5"/>
+    <sheet name="Sheet19" sheetId="19" r:id="rId6"/>
+    <sheet name="Sheet18" sheetId="18" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId8"/>
+    <sheet name="Sheet21" sheetId="21" r:id="rId9"/>
+    <sheet name="Sheet20" sheetId="20" r:id="rId10"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId11"/>
+    <sheet name="Sheet23" sheetId="23" r:id="rId12"/>
+    <sheet name="Sheet22" sheetId="22" r:id="rId13"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId14"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId15"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId16"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId17"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId18"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId19"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId20"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId21"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId22"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="91">
   <si>
     <t>Land cover class name</t>
   </si>
@@ -122,19 +140,201 @@
   </si>
   <si>
     <t>Percentage of farmers by source of inorganic fertilizers</t>
+  </si>
+  <si>
+    <t>Use of production by farmers and per crop type (%)</t>
+  </si>
+  <si>
+    <t>Maize</t>
+  </si>
+  <si>
+    <t>Sorghum</t>
+  </si>
+  <si>
+    <t>Paddy rice</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>Other cereals</t>
+  </si>
+  <si>
+    <t>Sweet potato</t>
+  </si>
+  <si>
+    <t>Irish potato</t>
+  </si>
+  <si>
+    <t>Yam &amp; Taro</t>
+  </si>
+  <si>
+    <t>Cassava</t>
+  </si>
+  <si>
+    <t>Bush bean</t>
+  </si>
+  <si>
+    <t>Climbing bean</t>
+  </si>
+  <si>
+    <t>Pea</t>
+  </si>
+  <si>
+    <t>Groundnut</t>
+  </si>
+  <si>
+    <t>Soybean</t>
+  </si>
+  <si>
+    <t>Cooking banana</t>
+  </si>
+  <si>
+    <t>Dessert banana</t>
+  </si>
+  <si>
+    <t>Banana for beer</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>Fodder crops</t>
+  </si>
+  <si>
+    <t>Other crops</t>
+  </si>
+  <si>
+    <t>Sold</t>
+  </si>
+  <si>
+    <t>Own consumption</t>
+  </si>
+  <si>
+    <t>Wages for hired labour</t>
+  </si>
+  <si>
+    <t>Farm rent</t>
+  </si>
+  <si>
+    <t>Offered as gift</t>
+  </si>
+  <si>
+    <t>Barter trade/Exchanged with other things</t>
+  </si>
+  <si>
+    <t>Seeds</t>
+  </si>
+  <si>
+    <t>Fodder purpose</t>
+  </si>
+  <si>
+    <t>Stored</t>
+  </si>
+  <si>
+    <t>Post harvesting losses</t>
+  </si>
+  <si>
+    <t>Other usage</t>
+  </si>
+  <si>
+    <t>Source of inorganic fertiliser by type of fertilizer (%)</t>
+  </si>
+  <si>
+    <t>NPK 17-17-17</t>
+  </si>
+  <si>
+    <t>NPK 20-10-10</t>
+  </si>
+  <si>
+    <t>NPK 25-5-5</t>
+  </si>
+  <si>
+    <t>NPK 22-6-12</t>
+  </si>
+  <si>
+    <t>Other NPK</t>
+  </si>
+  <si>
+    <t>Urea</t>
+  </si>
+  <si>
+    <t>liquid urea (Mbonea M)</t>
+  </si>
+  <si>
+    <t>DAP</t>
+  </si>
+  <si>
+    <t>TSP</t>
+  </si>
+  <si>
+    <t>KCL/MOP</t>
+  </si>
+  <si>
+    <t>Omax</t>
+  </si>
+  <si>
+    <t>Winner</t>
+  </si>
+  <si>
+    <t>Yara Viva</t>
+  </si>
+  <si>
+    <t>Amidas</t>
+  </si>
+  <si>
+    <t>Cereal</t>
+  </si>
+  <si>
+    <t>Boaster</t>
+  </si>
+  <si>
+    <t>DI Grow</t>
+  </si>
+  <si>
+    <t>Other type of fertilizer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agro dealers </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NGOs/Companies </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Market </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agriculture cooperative </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Other source </t>
+  </si>
+  <si>
+    <t>Source of improved seeds by season per crop type in 2022 (%)</t>
+  </si>
+  <si>
+    <t>Taro &amp; Yams</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,13 +362,41 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -195,12 +423,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -219,10 +448,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Comma 2 2" xfId="2" xr:uid="{85FF45A3-558E-4BF3-985B-17314716D68F}"/>
+    <cellStyle name="Comma 2 2 2" xfId="3" xr:uid="{30A545B1-529B-4F92-BF81-6C8B262AFC66}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -538,7 +803,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,11 +975,3548 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0275470F-EFC8-46D2-A9CA-08322F2A4CE5}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6">
+        <v>50.3</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6">
+        <v>36.9</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB804A35-B3CD-4314-AD67-15AD0037A036}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6">
+        <v>15.1</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784959D8-0092-4BEE-B0A6-06D8C7C1AE40}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6">
+        <v>43.56</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6">
+        <v>46.72</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5.44</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1.79</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66459F9C-766D-4C8B-A9D0-23B97371DF09}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6">
+        <v>52.85</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6">
+        <v>34.11</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6">
+        <v>7.28</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2.76</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9523DE-A33B-4196-B33D-4C8871F4B5E1}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.44418122594018361</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6">
+        <v>63.162570328694109</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6">
+        <v>18.655611489487711</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6">
+        <v>9.9496594610601132</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="6">
+        <v>7.3141841871483564</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.47379330766952915</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2798140A-7DBB-4CE5-9452-193D817F8787}">
+  <dimension ref="A1:X12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="14">
+        <v>30.458560000000002</v>
+      </c>
+      <c r="C2" s="14">
+        <v>58.519460000000002</v>
+      </c>
+      <c r="D2" s="14">
+        <v>80.861540000000005</v>
+      </c>
+      <c r="E2" s="14">
+        <v>34.282230000000006</v>
+      </c>
+      <c r="F2" s="14">
+        <v>72.026199999999989</v>
+      </c>
+      <c r="G2" s="14">
+        <v>23.64303</v>
+      </c>
+      <c r="H2" s="14">
+        <v>44.461659999999995</v>
+      </c>
+      <c r="I2" s="14">
+        <v>23.418659999999999</v>
+      </c>
+      <c r="J2" s="14">
+        <v>42.51238</v>
+      </c>
+      <c r="K2" s="14">
+        <v>15.936139999999998</v>
+      </c>
+      <c r="L2" s="14">
+        <v>13.621089999999999</v>
+      </c>
+      <c r="M2" s="14">
+        <v>34.642899999999997</v>
+      </c>
+      <c r="N2" s="14">
+        <v>12.14227</v>
+      </c>
+      <c r="O2" s="14">
+        <v>21.080960000000001</v>
+      </c>
+      <c r="P2" s="14">
+        <v>34.345530000000004</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>64.773939999999996</v>
+      </c>
+      <c r="R2" s="14">
+        <v>77.787440000000004</v>
+      </c>
+      <c r="S2" s="14">
+        <v>72.591009999999997</v>
+      </c>
+      <c r="T2" s="14">
+        <v>81.133589999999998</v>
+      </c>
+      <c r="U2" s="14">
+        <v>4.7580099999999996</v>
+      </c>
+      <c r="V2" s="14">
+        <v>82.753590000000003</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="14">
+        <v>57.652210000000004</v>
+      </c>
+      <c r="C3" s="14">
+        <v>27.644089999999998</v>
+      </c>
+      <c r="D3" s="14">
+        <v>12.668940000000001</v>
+      </c>
+      <c r="E3" s="14">
+        <v>47.802309999999999</v>
+      </c>
+      <c r="F3" s="14">
+        <v>18.834310000000002</v>
+      </c>
+      <c r="G3" s="14">
+        <v>64.990380000000002</v>
+      </c>
+      <c r="H3" s="14">
+        <v>35.362250000000003</v>
+      </c>
+      <c r="I3" s="14">
+        <v>66.724000000000004</v>
+      </c>
+      <c r="J3" s="14">
+        <v>51.586970000000001</v>
+      </c>
+      <c r="K3" s="14">
+        <v>60.830980000000004</v>
+      </c>
+      <c r="L3" s="14">
+        <v>62.128280000000004</v>
+      </c>
+      <c r="M3" s="14">
+        <v>48.576880000000003</v>
+      </c>
+      <c r="N3" s="14">
+        <v>67.343379999999996</v>
+      </c>
+      <c r="O3" s="14">
+        <v>53.639879999999998</v>
+      </c>
+      <c r="P3" s="14">
+        <v>61.371469999999995</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>32.237450000000003</v>
+      </c>
+      <c r="R3" s="14">
+        <v>17.31504</v>
+      </c>
+      <c r="S3" s="14">
+        <v>21.496960000000001</v>
+      </c>
+      <c r="T3" s="14">
+        <v>14.712620000000001</v>
+      </c>
+      <c r="U3" s="14">
+        <v>0</v>
+      </c>
+      <c r="V3" s="14">
+        <v>11.627039999999999</v>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0.67984999999999995</v>
+      </c>
+      <c r="C4" s="14">
+        <v>1.15642</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1.2668499999999998</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.58030000000000004</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.79509999999999992</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1.31857</v>
+      </c>
+      <c r="H4" s="14">
+        <v>1.0439800000000001</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0.96737000000000006</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0.86865999999999988</v>
+      </c>
+      <c r="K4" s="14">
+        <v>1.22204</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0.85419</v>
+      </c>
+      <c r="M4" s="14">
+        <v>0.26496999999999998</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0.32058999999999999</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0.26640000000000003</v>
+      </c>
+      <c r="P4" s="14">
+        <v>0.60468999999999995</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>0.16655999999999999</v>
+      </c>
+      <c r="R4" s="14">
+        <v>0.11023000000000001</v>
+      </c>
+      <c r="S4" s="14">
+        <v>1.349E-2</v>
+      </c>
+      <c r="T4" s="14">
+        <v>0</v>
+      </c>
+      <c r="U4" s="14">
+        <v>0.80249999999999988</v>
+      </c>
+      <c r="V4" s="14">
+        <v>8.6800000000000002E-3</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1.6385799999999999</v>
+      </c>
+      <c r="C5" s="14">
+        <v>2.5529999999999999</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.21898000000000001</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.20956999999999998</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1.2223200000000001</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0.50866</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.32196999999999998</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0.35034999999999999</v>
+      </c>
+      <c r="J5" s="14">
+        <v>1.0060199999999999</v>
+      </c>
+      <c r="K5" s="14">
+        <v>1.77966</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0.56891000000000003</v>
+      </c>
+      <c r="M5" s="14">
+        <v>5.0449999999999995E-2</v>
+      </c>
+      <c r="N5" s="14">
+        <v>0.51945999999999992</v>
+      </c>
+      <c r="O5" s="14">
+        <v>1.0464199999999999</v>
+      </c>
+      <c r="P5" s="14">
+        <v>0.29781999999999997</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>7.1829999999999991E-2</v>
+      </c>
+      <c r="R5" s="14">
+        <v>0.10207000000000001</v>
+      </c>
+      <c r="S5" s="14">
+        <v>0.27979999999999999</v>
+      </c>
+      <c r="T5" s="14">
+        <v>0</v>
+      </c>
+      <c r="U5" s="14">
+        <v>0</v>
+      </c>
+      <c r="V5" s="14">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="14">
+        <v>5.7606599999999997</v>
+      </c>
+      <c r="C6" s="14">
+        <v>3.8078800000000004</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1.92171</v>
+      </c>
+      <c r="E6" s="14">
+        <v>5.2080599999999997</v>
+      </c>
+      <c r="F6" s="14">
+        <v>2.5063399999999998</v>
+      </c>
+      <c r="G6" s="14">
+        <v>5.2800899999999995</v>
+      </c>
+      <c r="H6" s="14">
+        <v>4.1495899999999999</v>
+      </c>
+      <c r="I6" s="14">
+        <v>4.6145899999999997</v>
+      </c>
+      <c r="J6" s="14">
+        <v>3.4235300000000004</v>
+      </c>
+      <c r="K6" s="14">
+        <v>4.0089100000000002</v>
+      </c>
+      <c r="L6" s="14">
+        <v>6.5450999999999997</v>
+      </c>
+      <c r="M6" s="14">
+        <v>2.5512099999999998</v>
+      </c>
+      <c r="N6" s="14">
+        <v>1.6715399999999998</v>
+      </c>
+      <c r="O6" s="14">
+        <v>3.2078799999999998</v>
+      </c>
+      <c r="P6" s="14">
+        <v>3.19719</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>2.3691899999999997</v>
+      </c>
+      <c r="R6" s="14">
+        <v>4.0183200000000001</v>
+      </c>
+      <c r="S6" s="14">
+        <v>3.6148800000000003</v>
+      </c>
+      <c r="T6" s="14">
+        <v>3.3477600000000005</v>
+      </c>
+      <c r="U6" s="14">
+        <v>0.52011999999999992</v>
+      </c>
+      <c r="V6" s="14">
+        <v>1.4372799999999999</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="14">
+        <v>9.4699999999999993E-3</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.15018999999999999</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.14213999999999999</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>2.4919999999999998E-2</v>
+      </c>
+      <c r="H7" s="14">
+        <v>1.575E-2</v>
+      </c>
+      <c r="I7" s="14">
+        <v>7.6000000000000009E-3</v>
+      </c>
+      <c r="J7" s="14">
+        <v>3.7080000000000002E-2</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0.12132</v>
+      </c>
+      <c r="L7" s="14">
+        <v>8.0140000000000003E-2</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0.42881000000000002</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0.11842000000000001</v>
+      </c>
+      <c r="P7" s="14">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>8.8500000000000002E-3</v>
+      </c>
+      <c r="R7" s="14">
+        <v>1.5E-3</v>
+      </c>
+      <c r="S7" s="14">
+        <v>2.31E-3</v>
+      </c>
+      <c r="T7" s="14">
+        <v>0</v>
+      </c>
+      <c r="U7" s="14">
+        <v>1.3598699999999999</v>
+      </c>
+      <c r="V7" s="14">
+        <v>1.7909999999999999E-2</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0.94033999999999995</v>
+      </c>
+      <c r="C8" s="14">
+        <v>2.7614799999999997</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.46523999999999999</v>
+      </c>
+      <c r="E8" s="14">
+        <v>11.15621</v>
+      </c>
+      <c r="F8" s="14">
+        <v>3.2069800000000002</v>
+      </c>
+      <c r="G8" s="14">
+        <v>2.4429999999999997E-2</v>
+      </c>
+      <c r="H8" s="14">
+        <v>14.051589999999999</v>
+      </c>
+      <c r="I8" s="14">
+        <v>3.3126700000000002</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
+        <v>13.37054</v>
+      </c>
+      <c r="L8" s="14">
+        <v>14.128679999999999</v>
+      </c>
+      <c r="M8" s="14">
+        <v>13.22847</v>
+      </c>
+      <c r="N8" s="14">
+        <v>16.897090000000002</v>
+      </c>
+      <c r="O8" s="14">
+        <v>19.87161</v>
+      </c>
+      <c r="P8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>3.6699999999999997E-3</v>
+      </c>
+      <c r="R8" s="14">
+        <v>2.4979999999999999E-2</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0.99535000000000007</v>
+      </c>
+      <c r="T8" s="14">
+        <v>9.2200000000000008E-3</v>
+      </c>
+      <c r="U8" s="14">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="V8" s="14">
+        <v>8.5269999999999999E-2</v>
+      </c>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="14">
+        <v>0.28806999999999999</v>
+      </c>
+      <c r="C9" s="14">
+        <v>2.3060000000000001E-2</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>7.8589999999999993E-2</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>3.8135299999999996</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0.14330000000000001</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0.19488</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0.20104</v>
+      </c>
+      <c r="K9" s="14">
+        <v>1.678E-2</v>
+      </c>
+      <c r="L9" s="14">
+        <v>2.426E-2</v>
+      </c>
+      <c r="M9" s="14">
+        <v>2.019E-2</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.11643999999999999</v>
+      </c>
+      <c r="P9" s="14">
+        <v>4.4519999999999997E-2</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>3.8709999999999994E-2</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2.7720000000000002E-2</v>
+      </c>
+      <c r="S9" s="14">
+        <v>9.8700000000000003E-4</v>
+      </c>
+      <c r="T9" s="14">
+        <v>0</v>
+      </c>
+      <c r="U9" s="14">
+        <v>91.03746000000001</v>
+      </c>
+      <c r="V9" s="14">
+        <v>2.2500000000000003E-3</v>
+      </c>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="14">
+        <v>2.3228900000000001</v>
+      </c>
+      <c r="C10" s="14">
+        <v>3.2848099999999998</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2.163E-2</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.30148999999999998</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0.25381999999999999</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0.13646</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0.107</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>5.5359999999999999E-2</v>
+      </c>
+      <c r="K10" s="14">
+        <v>2.3152499999999998</v>
+      </c>
+      <c r="L10" s="14">
+        <v>1.7708999999999999</v>
+      </c>
+      <c r="M10" s="14">
+        <v>7.6579999999999995E-2</v>
+      </c>
+      <c r="N10" s="14">
+        <v>1.10137</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0.53686999999999996</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>0</v>
+      </c>
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>0</v>
+      </c>
+      <c r="U10" s="14">
+        <v>9.2579999999999996E-2</v>
+      </c>
+      <c r="V10" s="14">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0.11057</v>
+      </c>
+      <c r="C11" s="14">
+        <v>8.5940000000000003E-2</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14">
+        <v>4.3920000000000001E-2</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1.1124200000000002</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0.13868999999999998</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0.31666</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1.4679999999999999E-2</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0.14757999999999999</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0.22883000000000001</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0.13205</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0.15954000000000002</v>
+      </c>
+      <c r="N11" s="14">
+        <v>4.3E-3</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0.10616</v>
+      </c>
+      <c r="P11" s="14">
+        <v>1.941E-2</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>0.17529</v>
+      </c>
+      <c r="R11" s="14">
+        <v>0.53503000000000001</v>
+      </c>
+      <c r="S11" s="14">
+        <v>0.88429000000000002</v>
+      </c>
+      <c r="T11" s="14">
+        <v>0.27581</v>
+      </c>
+      <c r="U11" s="14">
+        <v>2.2599999999999999E-4</v>
+      </c>
+      <c r="V11" s="14">
+        <v>4.6529999999999995E-2</v>
+      </c>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="14">
+        <v>0.13878000000000001</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1.3669999999999998E-2</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.55962000000000001</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.19517000000000001</v>
+      </c>
+      <c r="F12" s="14">
+        <v>4.2509999999999999E-2</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.12122999999999999</v>
+      </c>
+      <c r="H12" s="14">
+        <v>2.6259999999999999E-2</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.3952</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.16138</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0.16955000000000001</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0.1464</v>
+      </c>
+      <c r="M12" s="14">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0</v>
+      </c>
+      <c r="O12" s="14">
+        <v>8.9499999999999996E-3</v>
+      </c>
+      <c r="P12" s="14">
+        <v>0.11807000000000001</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>0.15451000000000001</v>
+      </c>
+      <c r="R12" s="14">
+        <v>7.7669999999999989E-2</v>
+      </c>
+      <c r="S12" s="14">
+        <v>0.12091999999999999</v>
+      </c>
+      <c r="T12" s="14">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="U12" s="14">
+        <v>1.41473</v>
+      </c>
+      <c r="V12" s="14">
+        <v>4.0214499999999997</v>
+      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B785525-69D1-4122-BEF8-508CD64BCA6A}">
+  <dimension ref="A1:X12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="14">
+        <v>28.088020000000004</v>
+      </c>
+      <c r="C2" s="14">
+        <v>44.346150000000002</v>
+      </c>
+      <c r="D2" s="14">
+        <v>77.408109999999994</v>
+      </c>
+      <c r="E2" s="14">
+        <v>49.875889999999998</v>
+      </c>
+      <c r="F2" s="14">
+        <v>80.557789999999997</v>
+      </c>
+      <c r="G2" s="14">
+        <v>23.581230000000001</v>
+      </c>
+      <c r="H2" s="14">
+        <v>37.59619</v>
+      </c>
+      <c r="I2" s="14">
+        <v>25.526559999999996</v>
+      </c>
+      <c r="J2" s="14">
+        <v>41.782160000000005</v>
+      </c>
+      <c r="K2" s="14">
+        <v>16.403369999999999</v>
+      </c>
+      <c r="L2" s="14">
+        <v>14.57715</v>
+      </c>
+      <c r="M2" s="14">
+        <v>37.212009999999999</v>
+      </c>
+      <c r="N2" s="14">
+        <v>40.688679999999998</v>
+      </c>
+      <c r="O2" s="14">
+        <v>33.951989999999995</v>
+      </c>
+      <c r="P2" s="14">
+        <v>39.627130000000001</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>69.453640000000007</v>
+      </c>
+      <c r="R2" s="14">
+        <v>77.630499999999998</v>
+      </c>
+      <c r="S2" s="14">
+        <v>82.358260000000001</v>
+      </c>
+      <c r="T2" s="14">
+        <v>75.87154000000001</v>
+      </c>
+      <c r="U2" s="14">
+        <v>8.0282800000000005</v>
+      </c>
+      <c r="V2" s="14">
+        <v>93.499899999999997</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="14">
+        <v>60.750479999999996</v>
+      </c>
+      <c r="C3" s="14">
+        <v>40.467779999999998</v>
+      </c>
+      <c r="D3" s="14">
+        <v>15.808259999999999</v>
+      </c>
+      <c r="E3" s="14">
+        <v>32.188800000000001</v>
+      </c>
+      <c r="F3" s="14">
+        <v>12.274939999999999</v>
+      </c>
+      <c r="G3" s="14">
+        <v>66.273539999999997</v>
+      </c>
+      <c r="H3" s="14">
+        <v>44.701590000000003</v>
+      </c>
+      <c r="I3" s="14">
+        <v>63.494629999999994</v>
+      </c>
+      <c r="J3" s="14">
+        <v>51.366509999999998</v>
+      </c>
+      <c r="K3" s="14">
+        <v>59.520070000000004</v>
+      </c>
+      <c r="L3" s="14">
+        <v>60.079599999999999</v>
+      </c>
+      <c r="M3" s="14">
+        <v>49.085440000000006</v>
+      </c>
+      <c r="N3" s="14">
+        <v>36.522929999999995</v>
+      </c>
+      <c r="O3" s="14">
+        <v>42.61853</v>
+      </c>
+      <c r="P3" s="14">
+        <v>55.214620000000004</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>26.857009999999999</v>
+      </c>
+      <c r="R3" s="14">
+        <v>15.748529999999999</v>
+      </c>
+      <c r="S3" s="14">
+        <v>12.312760000000001</v>
+      </c>
+      <c r="T3" s="14">
+        <v>20.12867</v>
+      </c>
+      <c r="U3" s="14">
+        <v>0.14760999999999999</v>
+      </c>
+      <c r="V3" s="14">
+        <v>3.53104</v>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="14">
+        <v>1.10422</v>
+      </c>
+      <c r="C4" s="14">
+        <v>1.2284700000000002</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.70108000000000004</v>
+      </c>
+      <c r="E4" s="14">
+        <v>2.545E-2</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.73311999999999999</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1.1735900000000001</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.57038999999999995</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0.67387999999999992</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0.66017000000000003</v>
+      </c>
+      <c r="K4" s="14">
+        <v>1.4501500000000001</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0.81894</v>
+      </c>
+      <c r="M4" s="14">
+        <v>5.2760000000000001E-2</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0.21426000000000001</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0.47624</v>
+      </c>
+      <c r="P4" s="14">
+        <v>1.0361499999999999</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>0.14910999999999999</v>
+      </c>
+      <c r="R4" s="14">
+        <v>0.11610999999999999</v>
+      </c>
+      <c r="S4" s="14">
+        <v>4.19E-2</v>
+      </c>
+      <c r="T4" s="14">
+        <v>3.3960000000000004E-2</v>
+      </c>
+      <c r="U4" s="14">
+        <v>2.56114</v>
+      </c>
+      <c r="V4" s="14">
+        <v>3.4290000000000001E-2</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1.5101099999999998</v>
+      </c>
+      <c r="C5" s="14">
+        <v>2.61998</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.13489000000000001</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.65454999999999997</v>
+      </c>
+      <c r="F5" s="14">
+        <v>2.58555</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0.69833000000000001</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.54536000000000007</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0.50651000000000002</v>
+      </c>
+      <c r="J5" s="14">
+        <v>1.3404799999999999</v>
+      </c>
+      <c r="K5" s="14">
+        <v>2.3667500000000001</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0.86954000000000009</v>
+      </c>
+      <c r="M5" s="14">
+        <v>0.65427999999999997</v>
+      </c>
+      <c r="N5" s="14">
+        <v>1.27284</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0.80523</v>
+      </c>
+      <c r="P5" s="14">
+        <v>0.26247999999999999</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>0.12998000000000001</v>
+      </c>
+      <c r="R5" s="14">
+        <v>1.949E-2</v>
+      </c>
+      <c r="S5" s="14">
+        <v>0.11406999999999999</v>
+      </c>
+      <c r="T5" s="14">
+        <v>0</v>
+      </c>
+      <c r="U5" s="14">
+        <v>0</v>
+      </c>
+      <c r="V5" s="14">
+        <v>0.28652</v>
+      </c>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="14">
+        <v>4.8261099999999999</v>
+      </c>
+      <c r="C6" s="14">
+        <v>6.1601999999999997</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2.7930999999999999</v>
+      </c>
+      <c r="E6" s="14">
+        <v>6.7841200000000006</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.77930999999999995</v>
+      </c>
+      <c r="G6" s="14">
+        <v>4.6407799999999995</v>
+      </c>
+      <c r="H6" s="14">
+        <v>3.96272</v>
+      </c>
+      <c r="I6" s="14">
+        <v>4.9886600000000003</v>
+      </c>
+      <c r="J6" s="14">
+        <v>3.5201700000000002</v>
+      </c>
+      <c r="K6" s="14">
+        <v>4.2842199999999995</v>
+      </c>
+      <c r="L6" s="14">
+        <v>6.5255999999999998</v>
+      </c>
+      <c r="M6" s="14">
+        <v>2.7044800000000002</v>
+      </c>
+      <c r="N6" s="14">
+        <v>3.6428299999999996</v>
+      </c>
+      <c r="O6" s="14">
+        <v>3.5693999999999995</v>
+      </c>
+      <c r="P6" s="14">
+        <v>3.6273100000000005</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>2.86477</v>
+      </c>
+      <c r="R6" s="14">
+        <v>5.6619799999999998</v>
+      </c>
+      <c r="S6" s="14">
+        <v>2.5316899999999998</v>
+      </c>
+      <c r="T6" s="14">
+        <v>3.5764900000000002</v>
+      </c>
+      <c r="U6" s="14">
+        <v>0.37038000000000004</v>
+      </c>
+      <c r="V6" s="14">
+        <v>0.79313</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="14">
+        <v>3.9489999999999997E-2</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.10396999999999999</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>8.0979999999999996E-2</v>
+      </c>
+      <c r="H7" s="14">
+        <v>3.1189999999999999E-2</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0.12383999999999999</v>
+      </c>
+      <c r="J7" s="14">
+        <v>8.4700000000000001E-3</v>
+      </c>
+      <c r="K7" s="14">
+        <v>7.468000000000001E-2</v>
+      </c>
+      <c r="L7" s="14">
+        <v>3.9760000000000004E-2</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0.24209000000000003</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0.12439</v>
+      </c>
+      <c r="P7" s="14">
+        <v>8.9800000000000001E-3</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="R7" s="14">
+        <v>1.6029999999999999E-2</v>
+      </c>
+      <c r="S7" s="14">
+        <v>8.1100000000000009E-3</v>
+      </c>
+      <c r="T7" s="14">
+        <v>0</v>
+      </c>
+      <c r="U7" s="14">
+        <v>0.42493000000000003</v>
+      </c>
+      <c r="V7" s="14">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0.66761999999999999</v>
+      </c>
+      <c r="C8" s="14">
+        <v>3.3775300000000001</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.68344000000000005</v>
+      </c>
+      <c r="E8" s="14">
+        <v>10.042299999999999</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1.2179900000000001</v>
+      </c>
+      <c r="G8" s="14">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="H8" s="14">
+        <v>12.14536</v>
+      </c>
+      <c r="I8" s="14">
+        <v>4.32254</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
+        <v>13.82023</v>
+      </c>
+      <c r="L8" s="14">
+        <v>15.66479</v>
+      </c>
+      <c r="M8" s="14">
+        <v>9.8722500000000011</v>
+      </c>
+      <c r="N8" s="14">
+        <v>16.392899999999997</v>
+      </c>
+      <c r="O8" s="14">
+        <v>17.491989999999998</v>
+      </c>
+      <c r="P8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>1.7700000000000001E-3</v>
+      </c>
+      <c r="R8" s="14">
+        <v>5.6999999999999998E-4</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0.76005</v>
+      </c>
+      <c r="T8" s="14">
+        <v>0</v>
+      </c>
+      <c r="U8" s="14">
+        <v>9.6099999999999994E-4</v>
+      </c>
+      <c r="V8" s="14">
+        <v>1.0289999999999999E-2</v>
+      </c>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="14">
+        <v>0.42442000000000002</v>
+      </c>
+      <c r="C9" s="14">
+        <v>2.605E-2</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>8.3499999999999998E-3</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.123</v>
+      </c>
+      <c r="G9" s="14">
+        <v>3.3351199999999999</v>
+      </c>
+      <c r="H9" s="14">
+        <v>2.6120000000000001E-2</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0.17535000000000001</v>
+      </c>
+      <c r="K9" s="14">
+        <v>3.0329999999999999E-2</v>
+      </c>
+      <c r="L9" s="14">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="M9" s="14">
+        <v>1.7129999999999999E-2</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.20018000000000002</v>
+      </c>
+      <c r="P9" s="14">
+        <v>1.1310000000000001E-2</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>5.407E-2</v>
+      </c>
+      <c r="R9" s="14">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="S9" s="14">
+        <v>1.1502000000000001</v>
+      </c>
+      <c r="T9" s="14">
+        <v>0.11206000000000001</v>
+      </c>
+      <c r="U9" s="14">
+        <v>86.661299999999997</v>
+      </c>
+      <c r="V9" s="14">
+        <v>1.97E-3</v>
+      </c>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="14">
+        <v>2.3817200000000001</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1.2497100000000001</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.18062</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.14918000000000001</v>
+      </c>
+      <c r="F10" s="14">
+        <v>4.7460000000000002E-2</v>
+      </c>
+      <c r="G10" s="14">
+        <v>7.6350000000000001E-2</v>
+      </c>
+      <c r="H10" s="14">
+        <v>3.7870000000000001E-2</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0.85444000000000009</v>
+      </c>
+      <c r="K10" s="14">
+        <v>1.7739399999999999</v>
+      </c>
+      <c r="L10" s="14">
+        <v>1.1937200000000001</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0.22864000000000001</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0.95837000000000006</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0.54017999999999999</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>0</v>
+      </c>
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>0</v>
+      </c>
+      <c r="U10" s="14">
+        <v>5.9760000000000001E-2</v>
+      </c>
+      <c r="V10" s="14">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="14">
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.30668000000000001</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14">
+        <v>6.7799999999999996E-3</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1.6409300000000002</v>
+      </c>
+      <c r="G11" s="14">
+        <v>3.9379999999999998E-2</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0.27442</v>
+      </c>
+      <c r="I11" s="14">
+        <v>2.1190000000000001E-2</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0.14013</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0.17363999999999999</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0.11808</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0.12235</v>
+      </c>
+      <c r="N11" s="14">
+        <v>2.06E-2</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0.19489999999999999</v>
+      </c>
+      <c r="P11" s="14">
+        <v>4.4600000000000004E-3</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>0.15914</v>
+      </c>
+      <c r="R11" s="14">
+        <v>0.58774999999999999</v>
+      </c>
+      <c r="S11" s="14">
+        <v>0.55825000000000002</v>
+      </c>
+      <c r="T11" s="14">
+        <v>5.919E-2</v>
+      </c>
+      <c r="U11" s="14">
+        <v>2.0719999999999999E-2</v>
+      </c>
+      <c r="V11" s="14">
+        <v>9.8890000000000006E-2</v>
+      </c>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="14">
+        <v>0.1452</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0.11349000000000001</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.98824000000000001</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.26458999999999999</v>
+      </c>
+      <c r="F12" s="14">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="G12" s="14">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.10878000000000002</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.3422</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.15212999999999999</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0.10261999999999999</v>
+      </c>
+      <c r="L12" s="14">
+        <v>8.9520000000000002E-2</v>
+      </c>
+      <c r="M12" s="14">
+        <v>5.0650000000000001E-2</v>
+      </c>
+      <c r="N12" s="14">
+        <v>4.4490000000000002E-2</v>
+      </c>
+      <c r="O12" s="14">
+        <v>2.6970000000000001E-2</v>
+      </c>
+      <c r="P12" s="14">
+        <v>0.20757000000000003</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>0.31851000000000002</v>
+      </c>
+      <c r="R12" s="14">
+        <v>0.17515</v>
+      </c>
+      <c r="S12" s="14">
+        <v>0.16470000000000001</v>
+      </c>
+      <c r="T12" s="14">
+        <v>0.21808</v>
+      </c>
+      <c r="U12" s="14">
+        <v>1.72492</v>
+      </c>
+      <c r="V12" s="14">
+        <v>1.7439699999999998</v>
+      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFB074F-DFE2-4C11-9556-CFB6B2796241}">
+  <dimension ref="A1:X12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="15">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0</v>
+      </c>
+      <c r="G2" s="16">
+        <v>31.635990000000003</v>
+      </c>
+      <c r="H2" s="16">
+        <v>48.852259999999994</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16">
+        <v>15.567619999999998</v>
+      </c>
+      <c r="L2" s="16">
+        <v>12.66534</v>
+      </c>
+      <c r="M2" s="16">
+        <v>70.292560000000009</v>
+      </c>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16">
+        <v>37.021029999999996</v>
+      </c>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16">
+        <v>75.260069999999999</v>
+      </c>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16">
+        <v>57.132000000000005</v>
+      </c>
+      <c r="H3" s="16">
+        <v>37.50797</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16">
+        <v>66.006960000000007</v>
+      </c>
+      <c r="L3" s="16">
+        <v>77.085319999999996</v>
+      </c>
+      <c r="M3" s="16">
+        <v>21.94134</v>
+      </c>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16">
+        <v>42.682310000000001</v>
+      </c>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16">
+        <v>19.568440000000002</v>
+      </c>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1.59731</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0.45712000000000003</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16">
+        <v>0.66717000000000004</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16">
+        <v>0.13517999999999999</v>
+      </c>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16">
+        <v>0.66208999999999996</v>
+      </c>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16">
+        <v>0.10131999999999999</v>
+      </c>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1.39951</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0.24217000000000002</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16">
+        <v>0.48687000000000002</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16">
+        <v>0.18670999999999999</v>
+      </c>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16">
+        <v>1.4971399999999999</v>
+      </c>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16">
+        <v>0.38275000000000003</v>
+      </c>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>5.5296500000000002</v>
+      </c>
+      <c r="H6" s="16">
+        <v>5.3499100000000004</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16">
+        <v>4.4370399999999997</v>
+      </c>
+      <c r="L6" s="16">
+        <v>1.27315</v>
+      </c>
+      <c r="M6" s="16">
+        <v>2.01031</v>
+      </c>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16">
+        <v>5.0321400000000001</v>
+      </c>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16">
+        <v>3.5554700000000001</v>
+      </c>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>2.4300000000000003E-3</v>
+      </c>
+      <c r="H7" s="16">
+        <v>2.5329999999999998E-2</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16">
+        <v>9.9379999999999996E-2</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16">
+        <v>1.5270000000000001E-2</v>
+      </c>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16">
+        <v>0.16394999999999998</v>
+      </c>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16">
+        <v>1.881E-2</v>
+      </c>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="15">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>3.6919999999999994E-2</v>
+      </c>
+      <c r="H8" s="16">
+        <v>6.7719500000000004</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16">
+        <v>12.038920000000001</v>
+      </c>
+      <c r="L8" s="16">
+        <v>8.9761900000000008</v>
+      </c>
+      <c r="M8" s="16">
+        <v>5.2848100000000002</v>
+      </c>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16">
+        <v>12.266960000000001</v>
+      </c>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16">
+        <v>0.15689</v>
+      </c>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>2.2462</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0.10593</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16">
+        <v>2.7270000000000003E-2</v>
+      </c>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16">
+        <v>6.2140000000000001E-2</v>
+      </c>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16">
+        <v>0.42076999999999998</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16">
+        <v>0.10903</v>
+      </c>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16">
+        <v>0.4098</v>
+      </c>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16">
+        <v>6.0820000000000006E-2</v>
+      </c>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="15">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>4.403E-2</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0.35111000000000003</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16">
+        <v>7.715000000000001E-2</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16">
+        <v>1.6959999999999999E-2</v>
+      </c>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16">
+        <v>1.291E-2</v>
+      </c>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16">
+        <v>0.69621999999999995</v>
+      </c>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="15">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16">
+        <v>4.265E-2</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0.26214999999999999</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16">
+        <v>0.17085</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16">
+        <v>7.8300000000000002E-3</v>
+      </c>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16">
+        <v>0.25168000000000001</v>
+      </c>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16">
+        <v>0.13707999999999998</v>
+      </c>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E210FC-8EF1-4A08-B536-12E126700D4D}">
+  <dimension ref="A1:V7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="19">
+        <v>1.49</v>
+      </c>
+      <c r="C2" s="19">
+        <v>78.16</v>
+      </c>
+      <c r="D2" s="19">
+        <v>29.89</v>
+      </c>
+      <c r="E2" s="19">
+        <v>66.19</v>
+      </c>
+      <c r="F2" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G2" s="19">
+        <v>0.67</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19">
+        <v>0.62</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="O2" s="19">
+        <v>0.11</v>
+      </c>
+      <c r="P2" s="19">
+        <v>0.45</v>
+      </c>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19">
+        <v>1.7</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="19">
+        <v>65.94</v>
+      </c>
+      <c r="C3" s="19">
+        <v>2.65</v>
+      </c>
+      <c r="D3" s="19">
+        <v>6.65</v>
+      </c>
+      <c r="E3" s="19">
+        <v>21.27</v>
+      </c>
+      <c r="F3" s="19">
+        <v>76.81</v>
+      </c>
+      <c r="G3" s="19">
+        <v>38.86</v>
+      </c>
+      <c r="H3" s="19">
+        <v>78.72</v>
+      </c>
+      <c r="I3" s="19">
+        <v>36.67</v>
+      </c>
+      <c r="J3" s="19">
+        <v>100</v>
+      </c>
+      <c r="K3" s="19">
+        <v>99.71</v>
+      </c>
+      <c r="L3" s="19">
+        <v>80.349999999999994</v>
+      </c>
+      <c r="M3" s="19">
+        <v>99.53</v>
+      </c>
+      <c r="N3" s="19">
+        <v>80.349999999999994</v>
+      </c>
+      <c r="O3" s="19">
+        <v>27.89</v>
+      </c>
+      <c r="P3" s="19">
+        <v>87.03</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>33.47</v>
+      </c>
+      <c r="R3" s="19">
+        <v>36.4</v>
+      </c>
+      <c r="S3" s="19">
+        <v>80.27</v>
+      </c>
+      <c r="T3" s="19">
+        <v>41.54</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="19">
+        <v>26.18</v>
+      </c>
+      <c r="C4" s="19">
+        <v>5.25</v>
+      </c>
+      <c r="D4" s="19">
+        <v>18.71</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19">
+        <v>22.59</v>
+      </c>
+      <c r="G4" s="19">
+        <v>54.44</v>
+      </c>
+      <c r="H4" s="19">
+        <v>5.78</v>
+      </c>
+      <c r="I4" s="19">
+        <v>56.02</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L4" s="19">
+        <v>14.99</v>
+      </c>
+      <c r="M4" s="19">
+        <v>0.47</v>
+      </c>
+      <c r="N4" s="19">
+        <v>5.31</v>
+      </c>
+      <c r="O4" s="19">
+        <v>69.78</v>
+      </c>
+      <c r="P4" s="19">
+        <v>2.67</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>66.53</v>
+      </c>
+      <c r="R4" s="19">
+        <v>56.44</v>
+      </c>
+      <c r="S4" s="19">
+        <v>10.55</v>
+      </c>
+      <c r="T4" s="19">
+        <v>50.17</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="19">
+        <v>5.01</v>
+      </c>
+      <c r="C5" s="19">
+        <v>4.21</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19">
+        <v>4.45</v>
+      </c>
+      <c r="H5" s="19">
+        <v>14.11</v>
+      </c>
+      <c r="I5" s="19">
+        <v>4.97</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19">
+        <v>7.1</v>
+      </c>
+      <c r="S5" s="19">
+        <v>0.74</v>
+      </c>
+      <c r="T5" s="19">
+        <v>4.74</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="19">
+        <v>1.33</v>
+      </c>
+      <c r="C6" s="19">
+        <v>9.73</v>
+      </c>
+      <c r="D6" s="19">
+        <v>44.75</v>
+      </c>
+      <c r="E6" s="19">
+        <v>12.54</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19">
+        <v>1.3</v>
+      </c>
+      <c r="H6" s="19">
+        <v>1.39</v>
+      </c>
+      <c r="I6" s="19">
+        <v>1.44</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="O6" s="19">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="P6" s="19">
+        <v>9.85</v>
+      </c>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="S6" s="19">
+        <v>8.43</v>
+      </c>
+      <c r="T6" s="19">
+        <v>1.6</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19">
+        <v>4.66</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D719CDE4-4465-43EC-80FC-7D3B82CFBE61}">
+  <dimension ref="A1:V7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="19">
+        <v>1.35</v>
+      </c>
+      <c r="C2" s="19">
+        <v>59.57</v>
+      </c>
+      <c r="D2" s="19">
+        <v>30.77</v>
+      </c>
+      <c r="E2" s="19">
+        <v>55</v>
+      </c>
+      <c r="F2" s="19">
+        <v>2.9</v>
+      </c>
+      <c r="G2" s="19">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19">
+        <v>33.33</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19">
+        <v>3.57</v>
+      </c>
+      <c r="T2" s="19">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="19">
+        <v>66.84</v>
+      </c>
+      <c r="C3" s="19">
+        <v>17.02</v>
+      </c>
+      <c r="D3" s="19">
+        <v>30.77</v>
+      </c>
+      <c r="E3" s="19">
+        <v>22.5</v>
+      </c>
+      <c r="F3" s="19">
+        <v>92.75</v>
+      </c>
+      <c r="G3" s="19">
+        <v>53.64</v>
+      </c>
+      <c r="H3" s="19">
+        <v>83.33</v>
+      </c>
+      <c r="I3" s="19">
+        <v>47.86</v>
+      </c>
+      <c r="J3" s="19">
+        <v>100</v>
+      </c>
+      <c r="K3" s="19">
+        <v>50</v>
+      </c>
+      <c r="L3" s="19">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="M3" s="19">
+        <v>100</v>
+      </c>
+      <c r="N3" s="19">
+        <v>62.5</v>
+      </c>
+      <c r="O3" s="19">
+        <v>39.39</v>
+      </c>
+      <c r="P3" s="19">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19">
+        <v>77.27</v>
+      </c>
+      <c r="S3" s="19">
+        <v>69.64</v>
+      </c>
+      <c r="T3" s="19">
+        <v>54.21</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="19">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="C4" s="19">
+        <v>8.51</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19">
+        <v>34.43</v>
+      </c>
+      <c r="H4" s="19">
+        <v>8.33</v>
+      </c>
+      <c r="I4" s="19">
+        <v>43.17</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="L4" s="19">
+        <v>10.71</v>
+      </c>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19">
+        <v>21.21</v>
+      </c>
+      <c r="P4" s="19">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19">
+        <v>21.43</v>
+      </c>
+      <c r="T4" s="19">
+        <v>33.36</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="19">
+        <v>7.91</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19">
+        <v>15.38</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19">
+        <v>2.9</v>
+      </c>
+      <c r="G5" s="19">
+        <v>7.32</v>
+      </c>
+      <c r="H5" s="19">
+        <v>8.33</v>
+      </c>
+      <c r="I5" s="19">
+        <v>5.85</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19">
+        <v>17.86</v>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19">
+        <v>12.5</v>
+      </c>
+      <c r="O5" s="19">
+        <v>3.03</v>
+      </c>
+      <c r="P5" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19">
+        <v>9.09</v>
+      </c>
+      <c r="S5" s="19">
+        <v>1.79</v>
+      </c>
+      <c r="T5" s="19">
+        <v>6.64</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="19">
+        <v>4.12</v>
+      </c>
+      <c r="C6" s="19">
+        <v>10.64</v>
+      </c>
+      <c r="D6" s="19">
+        <v>15.38</v>
+      </c>
+      <c r="E6" s="19">
+        <v>15</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1.45</v>
+      </c>
+      <c r="G6" s="19">
+        <v>2.95</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19">
+        <v>1.76</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19">
+        <v>30.3</v>
+      </c>
+      <c r="P6" s="19">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>100</v>
+      </c>
+      <c r="R6" s="19">
+        <v>13.64</v>
+      </c>
+      <c r="S6" s="19">
+        <v>1.79</v>
+      </c>
+      <c r="T6" s="19">
+        <v>3.2</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0.34</v>
+      </c>
+      <c r="C7" s="19">
+        <v>4.26</v>
+      </c>
+      <c r="D7" s="19">
+        <v>7.69</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19">
+        <v>0.24</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19">
+        <v>25</v>
+      </c>
+      <c r="O7" s="19">
+        <v>6.06</v>
+      </c>
+      <c r="P7" s="19">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19">
+        <v>1.79</v>
+      </c>
+      <c r="T7" s="19">
+        <v>0.51</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA6750D-31F3-4B9F-A901-D1F98E071A80}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -851,12 +4653,2013 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3735DA99-56EE-4B51-80BC-867566387554}">
-  <dimension ref="A1:E9"/>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604B185C-119D-4A4F-BD1C-F7F1038350DF}">
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.47</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19">
+        <v>0.37</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19">
+        <v>0.83</v>
+      </c>
+      <c r="T2" s="19">
+        <v>0.41</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="19">
+        <v>65.98</v>
+      </c>
+      <c r="C3" s="19">
+        <v>100</v>
+      </c>
+      <c r="D3" s="19">
+        <v>100</v>
+      </c>
+      <c r="E3" s="19">
+        <v>100</v>
+      </c>
+      <c r="F3" s="19">
+        <v>86.84</v>
+      </c>
+      <c r="G3" s="19">
+        <v>61.09</v>
+      </c>
+      <c r="H3" s="19">
+        <v>75.81</v>
+      </c>
+      <c r="I3" s="19">
+        <v>60.2</v>
+      </c>
+      <c r="J3" s="19">
+        <v>50</v>
+      </c>
+      <c r="K3" s="19">
+        <v>100</v>
+      </c>
+      <c r="L3" s="19">
+        <v>75.680000000000007</v>
+      </c>
+      <c r="M3" s="19">
+        <v>91.67</v>
+      </c>
+      <c r="N3" s="19">
+        <v>80.95</v>
+      </c>
+      <c r="O3" s="19">
+        <v>100</v>
+      </c>
+      <c r="P3" s="19">
+        <v>42.86</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>50</v>
+      </c>
+      <c r="R3" s="19">
+        <v>74.069999999999993</v>
+      </c>
+      <c r="S3" s="19">
+        <v>67.5</v>
+      </c>
+      <c r="T3" s="19">
+        <v>64.03</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="19">
+        <v>16.45</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19">
+        <v>5.26</v>
+      </c>
+      <c r="G4" s="19">
+        <v>22.05</v>
+      </c>
+      <c r="H4" s="19">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="I4" s="19">
+        <v>22.07</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19">
+        <v>5.41</v>
+      </c>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19">
+        <v>9.52</v>
+      </c>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19">
+        <v>7.41</v>
+      </c>
+      <c r="S4" s="19">
+        <v>15</v>
+      </c>
+      <c r="T4" s="19">
+        <v>18.87</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="19">
+        <v>8.15</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19">
+        <v>5.26</v>
+      </c>
+      <c r="G5" s="19">
+        <v>10.65</v>
+      </c>
+      <c r="H5" s="19">
+        <v>4.03</v>
+      </c>
+      <c r="I5" s="19">
+        <v>12.28</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19">
+        <v>8.11</v>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19">
+        <v>4.76</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19">
+        <v>50</v>
+      </c>
+      <c r="R5" s="19">
+        <v>7.41</v>
+      </c>
+      <c r="S5" s="19">
+        <v>8.33</v>
+      </c>
+      <c r="T5" s="19">
+        <v>9.61</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="19">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19">
+        <v>2.63</v>
+      </c>
+      <c r="G6" s="19">
+        <v>5.26</v>
+      </c>
+      <c r="H6" s="19">
+        <v>3.23</v>
+      </c>
+      <c r="I6" s="19">
+        <v>4.25</v>
+      </c>
+      <c r="J6" s="19">
+        <v>50</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19">
+        <v>10.81</v>
+      </c>
+      <c r="M6" s="19">
+        <v>8.33</v>
+      </c>
+      <c r="N6" s="19">
+        <v>4.76</v>
+      </c>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19">
+        <v>57.14</v>
+      </c>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19">
+        <v>7.41</v>
+      </c>
+      <c r="S6" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="T6" s="19">
+        <v>6.57</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0.33</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19">
+        <v>0.54</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19">
+        <v>0.83</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19">
+        <v>3.7</v>
+      </c>
+      <c r="S7" s="19">
+        <v>0.83</v>
+      </c>
+      <c r="T7" s="19">
+        <v>0.51</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35138D93-A8BF-4CD4-B26E-5924DCC95B92}">
+  <dimension ref="A1:V8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="21">
+        <v>2.92</v>
+      </c>
+      <c r="C2" s="21">
+        <v>6.8</v>
+      </c>
+      <c r="D2" s="21">
+        <v>33.33</v>
+      </c>
+      <c r="E2" s="21">
+        <v>1.92</v>
+      </c>
+      <c r="F2" s="21">
+        <v>18.57</v>
+      </c>
+      <c r="G2" s="21">
+        <v>50</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21">
+        <v>21.57</v>
+      </c>
+      <c r="J2" s="21">
+        <v>55.56</v>
+      </c>
+      <c r="K2" s="21">
+        <v>66.67</v>
+      </c>
+      <c r="L2" s="21">
+        <v>17.95</v>
+      </c>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21">
+        <v>10.87</v>
+      </c>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21">
+        <v>27.78</v>
+      </c>
+      <c r="Q2" s="21">
+        <v>29.06</v>
+      </c>
+      <c r="R2" s="21">
+        <v>1.52</v>
+      </c>
+      <c r="S2" s="21">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="T2" s="21">
+        <v>33.33</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="21">
+        <v>1.79</v>
+      </c>
+      <c r="C3" s="21">
+        <v>50.49</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21">
+        <v>47.14</v>
+      </c>
+      <c r="G3" s="21">
+        <v>33.33</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21">
+        <v>21.57</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21">
+        <v>38.46</v>
+      </c>
+      <c r="M3" s="21">
+        <v>60</v>
+      </c>
+      <c r="N3" s="21">
+        <v>65.22</v>
+      </c>
+      <c r="O3" s="21">
+        <v>81.08</v>
+      </c>
+      <c r="P3" s="21">
+        <v>27.78</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>24.79</v>
+      </c>
+      <c r="R3" s="21">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21">
+        <v>25.76</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="21">
+        <v>38.840000000000003</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21">
+        <v>66.67</v>
+      </c>
+      <c r="E4" s="21">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="F4" s="21">
+        <v>10</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21">
+        <v>50</v>
+      </c>
+      <c r="I4" s="21">
+        <v>27.45</v>
+      </c>
+      <c r="J4" s="21">
+        <v>22.22</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21">
+        <v>20.51</v>
+      </c>
+      <c r="M4" s="21">
+        <v>20</v>
+      </c>
+      <c r="N4" s="21">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="O4" s="21">
+        <v>5.41</v>
+      </c>
+      <c r="P4" s="21">
+        <v>11.11</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>5.13</v>
+      </c>
+      <c r="R4" s="21">
+        <v>51.39</v>
+      </c>
+      <c r="S4" s="21">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="T4" s="21">
+        <v>3.03</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="21">
+        <v>48.13</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21">
+        <v>34.619999999999997</v>
+      </c>
+      <c r="F5" s="21">
+        <v>1.43</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21">
+        <v>25.49</v>
+      </c>
+      <c r="J5" s="21">
+        <v>22.22</v>
+      </c>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21">
+        <v>12.82</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21">
+        <v>2.17</v>
+      </c>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21">
+        <v>27.78</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>23.08</v>
+      </c>
+      <c r="R5" s="21">
+        <v>6.33</v>
+      </c>
+      <c r="S5" s="21">
+        <v>4.92</v>
+      </c>
+      <c r="T5" s="21">
+        <v>7.58</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="21">
+        <v>4.78</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.97</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21">
+        <v>13.46</v>
+      </c>
+      <c r="F6" s="21">
+        <v>15.71</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21">
+        <v>2.56</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21">
+        <v>6.52</v>
+      </c>
+      <c r="O6" s="21">
+        <v>2.7</v>
+      </c>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21">
+        <v>11.97</v>
+      </c>
+      <c r="R6" s="21">
+        <v>34.43</v>
+      </c>
+      <c r="S6" s="21">
+        <v>13.11</v>
+      </c>
+      <c r="T6" s="21">
+        <v>4.55</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="21">
+        <v>2.9</v>
+      </c>
+      <c r="C7" s="21">
+        <v>41.75</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21">
+        <v>25</v>
+      </c>
+      <c r="F7" s="21">
+        <v>5.71</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21">
+        <v>33.33</v>
+      </c>
+      <c r="L7" s="21">
+        <v>7.69</v>
+      </c>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="R7" s="21">
+        <v>2.78</v>
+      </c>
+      <c r="S7" s="21">
+        <v>3.28</v>
+      </c>
+      <c r="T7" s="21">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="21">
+        <v>0.64</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21">
+        <v>15.38</v>
+      </c>
+      <c r="F8" s="21">
+        <v>1.43</v>
+      </c>
+      <c r="G8" s="21">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="H8" s="21">
+        <v>50</v>
+      </c>
+      <c r="I8" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21">
+        <v>20</v>
+      </c>
+      <c r="N8" s="21">
+        <v>10.87</v>
+      </c>
+      <c r="O8" s="21">
+        <v>10.81</v>
+      </c>
+      <c r="P8" s="21">
+        <v>5.56</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>1.71</v>
+      </c>
+      <c r="R8" s="21">
+        <v>1.52</v>
+      </c>
+      <c r="S8" s="21">
+        <v>1.64</v>
+      </c>
+      <c r="T8" s="21">
+        <v>9.09</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6664F446-D433-430E-9AE1-54542F47586C}">
+  <dimension ref="A1:V8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="21">
+        <v>2.85</v>
+      </c>
+      <c r="C2" s="21">
+        <v>3.45</v>
+      </c>
+      <c r="D2" s="21">
+        <v>24</v>
+      </c>
+      <c r="E2" s="21">
+        <v>4.55</v>
+      </c>
+      <c r="F2" s="21">
+        <v>14</v>
+      </c>
+      <c r="G2" s="21">
+        <v>25</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21">
+        <v>33.33</v>
+      </c>
+      <c r="J2" s="21">
+        <v>66.67</v>
+      </c>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21">
+        <v>47.92</v>
+      </c>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21">
+        <v>26.32</v>
+      </c>
+      <c r="O2" s="21">
+        <v>5.56</v>
+      </c>
+      <c r="P2" s="21">
+        <v>33.33</v>
+      </c>
+      <c r="Q2" s="21">
+        <v>21.95</v>
+      </c>
+      <c r="R2" s="21">
+        <v>1.47</v>
+      </c>
+      <c r="S2" s="21">
+        <v>39.29</v>
+      </c>
+      <c r="T2" s="21">
+        <v>61.95</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="21">
+        <v>2.16</v>
+      </c>
+      <c r="C3" s="21">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="D3" s="21">
+        <v>4</v>
+      </c>
+      <c r="E3" s="21">
+        <v>18.18</v>
+      </c>
+      <c r="F3" s="21">
+        <v>56</v>
+      </c>
+      <c r="G3" s="21">
+        <v>75</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21">
+        <v>26.67</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21">
+        <v>25</v>
+      </c>
+      <c r="M3" s="21">
+        <v>66.67</v>
+      </c>
+      <c r="N3" s="21">
+        <v>63.16</v>
+      </c>
+      <c r="O3" s="21">
+        <v>83.33</v>
+      </c>
+      <c r="P3" s="21">
+        <v>44.44</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>31.71</v>
+      </c>
+      <c r="R3" s="21">
+        <v>4.04</v>
+      </c>
+      <c r="S3" s="21">
+        <v>17.86</v>
+      </c>
+      <c r="T3" s="21">
+        <v>12.68</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="21">
+        <v>53.48</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1.72</v>
+      </c>
+      <c r="D4" s="21">
+        <v>40</v>
+      </c>
+      <c r="E4" s="21">
+        <v>7.58</v>
+      </c>
+      <c r="F4" s="21">
+        <v>4</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21">
+        <v>6.67</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21">
+        <v>14.58</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21">
+        <v>31.71</v>
+      </c>
+      <c r="R4" s="21">
+        <v>55.51</v>
+      </c>
+      <c r="S4" s="21">
+        <v>25</v>
+      </c>
+      <c r="T4" s="21"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="21">
+        <v>32.86</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21">
+        <v>20</v>
+      </c>
+      <c r="E5" s="21">
+        <v>13.64</v>
+      </c>
+      <c r="F5" s="21">
+        <v>4</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21">
+        <v>30</v>
+      </c>
+      <c r="J5" s="21">
+        <v>33.33</v>
+      </c>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21">
+        <v>8.33</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21">
+        <v>11.11</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>7.32</v>
+      </c>
+      <c r="R5" s="21">
+        <v>3.31</v>
+      </c>
+      <c r="S5" s="21">
+        <v>3.57</v>
+      </c>
+      <c r="T5" s="21">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="21">
+        <v>6.43</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21">
+        <v>7.58</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21">
+        <v>3.33</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21">
+        <v>100</v>
+      </c>
+      <c r="L6" s="21">
+        <v>2.08</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21">
+        <v>5.56</v>
+      </c>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21">
+        <v>7.32</v>
+      </c>
+      <c r="R6" s="21">
+        <v>31.62</v>
+      </c>
+      <c r="S6" s="21">
+        <v>14.29</v>
+      </c>
+      <c r="T6" s="21">
+        <v>7.32</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="21">
+        <v>1.79</v>
+      </c>
+      <c r="C7" s="21">
+        <v>60.34</v>
+      </c>
+      <c r="D7" s="21">
+        <v>12</v>
+      </c>
+      <c r="E7" s="21">
+        <v>45.45</v>
+      </c>
+      <c r="F7" s="21">
+        <v>16</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21">
+        <v>2.08</v>
+      </c>
+      <c r="M7" s="21">
+        <v>33.33</v>
+      </c>
+      <c r="N7" s="21">
+        <v>10.53</v>
+      </c>
+      <c r="O7" s="21">
+        <v>5.56</v>
+      </c>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21">
+        <v>1.47</v>
+      </c>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21">
+        <v>11.22</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="21">
+        <v>0.42</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21">
+        <v>3.03</v>
+      </c>
+      <c r="F8" s="21">
+        <v>6</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21">
+        <v>11.11</v>
+      </c>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21">
+        <v>2.57</v>
+      </c>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21">
+        <v>2.44</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EECA36-12EB-407E-B475-E31E789F0F57}">
+  <dimension ref="A1:V8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21">
+        <v>1.52</v>
+      </c>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21">
+        <v>53.52</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21">
+        <v>50</v>
+      </c>
+      <c r="L3" s="21">
+        <v>9.09</v>
+      </c>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21">
+        <v>1.88</v>
+      </c>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21">
+        <v>2.34</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21">
+        <v>33.33</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21">
+        <v>50</v>
+      </c>
+      <c r="L4" s="21">
+        <v>36.36</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21">
+        <v>28.57</v>
+      </c>
+      <c r="R4" s="21">
+        <v>55.51</v>
+      </c>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21">
+        <v>3.13</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21">
+        <v>33.33</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21">
+        <v>45.45</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21">
+        <v>14.29</v>
+      </c>
+      <c r="R5" s="21">
+        <v>3.04</v>
+      </c>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21">
+        <v>57.14</v>
+      </c>
+      <c r="R6" s="21">
+        <v>32.590000000000003</v>
+      </c>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21">
+        <v>33.33</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21">
+        <v>9.09</v>
+      </c>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21">
+        <v>4.12</v>
+      </c>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21">
+        <v>1.34</v>
+      </c>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364F9BFF-9982-4F4F-BCC6-011B0FE04506}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="6">
+        <v>37.6</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D9D56F-A28F-47E6-BBC6-2121563FC84D}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6">
+        <v>30.3</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="6">
+        <v>38.9</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948B2039-6303-466E-820A-07167CC2BCC4}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="6">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6">
+        <v>12.6</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6">
+        <v>28.6</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964EF0F0-6D10-4D1E-8269-AA4DC425DAD4}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6">
+        <v>41.22</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="6">
+        <v>36.57</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4.82</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6">
+        <v>6.99</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5.34</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3.91</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB75A79F-0176-4A92-8CD6-C78AFDA5D30D}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6">
+        <v>23.86</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="6">
+        <v>42.76</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6">
+        <v>9.59</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6">
+        <v>8.42</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="6">
+        <v>6.24</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3735DA99-56EE-4B51-80BC-867566387554}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,378 +6667,159 @@
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1">
+      <c r="C1" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="6">
-        <v>41.22</v>
-      </c>
-      <c r="C2" s="6">
-        <v>23.86</v>
-      </c>
-      <c r="D2" s="6">
         <v>3.51</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="6">
-        <v>36.57</v>
-      </c>
-      <c r="C3" s="6">
-        <v>42.76</v>
-      </c>
-      <c r="D3" s="6">
         <v>45.38</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="6">
-        <v>4.82</v>
-      </c>
-      <c r="C4" s="6">
-        <v>9.59</v>
-      </c>
-      <c r="D4" s="6">
         <v>2.72</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="6">
-        <v>6.99</v>
-      </c>
-      <c r="C5" s="6">
-        <v>8.42</v>
-      </c>
-      <c r="D5" s="6">
         <v>27.49</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="6">
-        <v>5.34</v>
-      </c>
-      <c r="C6" s="6">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="D6" s="6">
         <v>11.45</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="6">
-        <v>3.91</v>
-      </c>
-      <c r="C7" s="6">
-        <v>6.24</v>
-      </c>
-      <c r="D7" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="6">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C8" s="6">
-        <v>0.92</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3"/>
+      <c r="C8" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB804A35-B3CD-4314-AD67-15AD0037A036}">
-  <dimension ref="A1:E7"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E0C204-647C-4BD0-ABA9-A7E2E50424DE}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="9">
+      <c r="C1" s="9">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="6">
         <v>3.6</v>
       </c>
-      <c r="C2" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="6">
         <v>46</v>
       </c>
-      <c r="C3" s="6">
-        <v>50.3</v>
-      </c>
-      <c r="D3" s="6">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="6">
         <v>42.2</v>
       </c>
-      <c r="C4" s="6">
-        <v>36.9</v>
-      </c>
-      <c r="D4" s="6">
-        <v>15.1</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="6">
         <v>3.8</v>
       </c>
-      <c r="C5" s="6">
-        <v>5.9</v>
-      </c>
-      <c r="D5" s="6">
-        <v>10.6</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="6">
         <v>3.7</v>
       </c>
-      <c r="C6" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="6">
         <v>0.7</v>
       </c>
-      <c r="C7" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9523DE-A33B-4196-B33D-4C8871F4B5E1}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="9">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="6">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.44418122594018361</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="6">
-        <v>43.56</v>
-      </c>
-      <c r="C3" s="6">
-        <v>52.85</v>
-      </c>
-      <c r="D3" s="6">
-        <v>63.162570328694109</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="6">
-        <v>46.72</v>
-      </c>
-      <c r="C4" s="6">
-        <v>34.11</v>
-      </c>
-      <c r="D4" s="6">
-        <v>18.655611489487711</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="6">
-        <v>5.44</v>
-      </c>
-      <c r="C5" s="6">
-        <v>7.28</v>
-      </c>
-      <c r="D5" s="6">
-        <v>9.9496594610601132</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1.79</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2.76</v>
-      </c>
-      <c r="D6" s="6">
-        <v>7.3141841871483564</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.47379330766952915</v>
-      </c>
-      <c r="E7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Interactive_dashboard/other_findings.xlsx
+++ b/Interactive_dashboard/other_findings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\NISR\Hackathon2023\Interactive_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE0031F-7D83-46AF-B14B-18BD81753EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23910545-DF88-4314-8A67-6DC74BC3C709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D63F298A-F48B-47EA-B7AF-05A1D84C3BA4}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>Percentage share</t>
   </si>
   <si>
-    <t>List of Rwanda Land cover classes</t>
-  </si>
-  <si>
     <t>Intensive Tea plantations</t>
   </si>
   <si>
@@ -330,6 +327,9 @@
   </si>
   <si>
     <t>Barter trade</t>
+  </si>
+  <si>
+    <t>Rwanda Land cover classes</t>
   </si>
 </sst>
 </file>
@@ -805,7 +805,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -816,7 +816,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3">
         <v>17821</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>1343933</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>55807</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
         <v>21848</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>37743</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3">
         <v>144490</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3">
         <v>31612</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3">
         <v>78928</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3">
         <v>15404</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3">
         <v>135295</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3">
         <v>241455</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3">
         <v>12201</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3">
         <v>395001</v>
@@ -1001,13 +1001,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="8">
         <v>2021</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5">
         <v>1.7</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5">
         <v>64.400000000000006</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5">
         <v>15.1</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5">
         <v>10.6</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5">
         <v>7.8</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5">
         <v>0.3</v>
@@ -1090,13 +1090,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="D1" s="8">
         <v>2022</v>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5">
         <v>2.2400000000000002</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5">
         <v>43.56</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5">
         <v>46.72</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5">
         <v>5.44</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5">
         <v>1.79</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5">
         <v>0.25</v>
@@ -1179,13 +1179,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="8">
         <v>2022</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5">
         <v>2.4500000000000002</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5">
         <v>52.85</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5">
         <v>34.11</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5">
         <v>7.28</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5">
         <v>2.76</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5">
         <v>0.56000000000000005</v>
@@ -1268,13 +1268,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="8">
         <v>2022</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5">
         <v>0.44418122594018361</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5">
         <v>63.162570328694109</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5">
         <v>18.655611489487711</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5">
         <v>9.9496594610601132</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5">
         <v>7.3141841871483564</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5">
         <v>0.47379330766952915</v>
@@ -1357,73 +1357,73 @@
   <sheetData>
     <row r="1" spans="1:24" ht="28" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="W1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X1" s="1">
         <v>2022</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="2" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="13">
         <v>30.458560000000002</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="3" spans="1:24" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="13">
         <v>57.652210000000004</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="4" spans="1:24" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="13">
         <v>0.67984999999999995</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="5" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="13">
         <v>1.6385799999999999</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="6" spans="1:24" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="13">
         <v>5.7606599999999997</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="7" spans="1:24" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="13">
         <v>9.4699999999999993E-3</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="8" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="13">
         <v>0.94033999999999995</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="9" spans="1:24" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="13">
         <v>0.28806999999999999</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="10" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="13">
         <v>2.3228900000000001</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="11" spans="1:24" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="13">
         <v>0.11057</v>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="12" spans="1:24" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="13">
         <v>0.13878000000000001</v>
@@ -2260,73 +2260,73 @@
   <sheetData>
     <row r="1" spans="1:24" ht="28" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="W1" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X1" s="1">
         <v>2022</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="2" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="13">
         <v>28.088020000000004</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="3" spans="1:24" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="13">
         <v>60.750479999999996</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="4" spans="1:24" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="13">
         <v>1.10422</v>
@@ -2556,7 +2556,7 @@
     </row>
     <row r="5" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="13">
         <v>1.5101099999999998</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="6" spans="1:24" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="13">
         <v>4.8261099999999999</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="7" spans="1:24" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="13">
         <v>3.9489999999999997E-2</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="8" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="13">
         <v>0.66761999999999999</v>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="9" spans="1:24" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="13">
         <v>0.42442000000000002</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="10" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="13">
         <v>2.3817200000000001</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="11" spans="1:24" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="13">
         <v>6.2600000000000003E-2</v>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="12" spans="1:24" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="13">
         <v>0.1452</v>
@@ -3163,73 +3163,73 @@
   <sheetData>
     <row r="1" spans="1:24" ht="28" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="W1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X1" s="1">
         <v>2022</v>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="2" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="14">
         <v>0</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="3" spans="1:24" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="14">
         <v>0</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="4" spans="1:24" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="14">
         <v>0</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="5" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="14">
         <v>0</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="6" spans="1:24" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="14">
         <v>0</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="7" spans="1:24" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="14">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="8" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="14">
         <v>0</v>
@@ -3755,7 +3755,7 @@
     </row>
     <row r="9" spans="1:24" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="14">
         <v>0</v>
@@ -3829,7 +3829,7 @@
     </row>
     <row r="10" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="14">
         <v>0</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="11" spans="1:24" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="14">
         <v>0</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="12" spans="1:24" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="14">
         <v>0</v>
@@ -4066,67 +4066,67 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="T1" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V1" s="1">
         <v>2022</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="2" spans="1:22" ht="70.5" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="18">
         <v>1.49</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="18">
         <v>65.94</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="18">
         <v>26.18</v>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="18">
         <v>5.01</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="6" spans="1:22" ht="56.5" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="18">
         <v>1.33</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="18">
         <v>0.04</v>
@@ -4557,67 +4557,67 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="T1" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V1" s="1">
         <v>2022</v>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="2" spans="1:22" ht="70.5" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="18">
         <v>1.35</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="18">
         <v>66.84</v>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="18">
         <v>19.440000000000001</v>
@@ -4829,7 +4829,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="18">
         <v>7.91</v>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="6" spans="1:22" ht="56.5" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="18">
         <v>4.12</v>
@@ -4965,7 +4965,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="18">
         <v>0.34</v>
@@ -5048,67 +5048,67 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="T1" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V1" s="1">
         <v>2022</v>
@@ -5116,7 +5116,7 @@
     </row>
     <row r="2" spans="1:22" ht="70.5" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="18">
         <v>0.47</v>
@@ -5184,7 +5184,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="18">
         <v>65.98</v>
@@ -5252,7 +5252,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="18">
         <v>16.45</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="18">
         <v>8.15</v>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="6" spans="1:22" ht="56.5" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="18">
         <v>8.6199999999999992</v>
@@ -5456,7 +5456,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="18">
         <v>0.33</v>
@@ -5539,13 +5539,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D1" s="1">
         <v>2021</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5">
         <v>39.299999999999997</v>
@@ -5563,7 +5563,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5">
         <v>37.6</v>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5">
         <v>8.3000000000000007</v>
@@ -5583,7 +5583,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5">
         <v>5.2</v>
@@ -5593,7 +5593,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5">
         <v>4.3</v>
@@ -5603,7 +5603,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5">
         <v>4.3</v>
@@ -5613,7 +5613,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -5638,67 +5638,67 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>89</v>
-      </c>
       <c r="I1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="19" t="s">
-        <v>43</v>
-      </c>
       <c r="L1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="19" t="s">
+      <c r="T1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="19" t="s">
-        <v>52</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V1" s="1">
         <v>2022</v>
@@ -5706,7 +5706,7 @@
     </row>
     <row r="2" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="20">
         <v>2.92</v>
@@ -5774,7 +5774,7 @@
     </row>
     <row r="3" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="20">
         <v>1.79</v>
@@ -5842,7 +5842,7 @@
     </row>
     <row r="4" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="20">
         <v>38.840000000000003</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="5" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="20">
         <v>48.13</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="6" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="20">
         <v>4.78</v>
@@ -6046,7 +6046,7 @@
     </row>
     <row r="7" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="20">
         <v>2.9</v>
@@ -6114,7 +6114,7 @@
     </row>
     <row r="8" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="20">
         <v>0.64</v>
@@ -6197,67 +6197,67 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>89</v>
-      </c>
       <c r="I1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="19" t="s">
-        <v>43</v>
-      </c>
       <c r="L1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="19" t="s">
+      <c r="T1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="19" t="s">
-        <v>52</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V1" s="1">
         <v>2022</v>
@@ -6265,7 +6265,7 @@
     </row>
     <row r="2" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="20">
         <v>2.85</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="3" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="20">
         <v>2.16</v>
@@ -6401,7 +6401,7 @@
     </row>
     <row r="4" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="20">
         <v>53.48</v>
@@ -6469,7 +6469,7 @@
     </row>
     <row r="5" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="20">
         <v>32.86</v>
@@ -6537,7 +6537,7 @@
     </row>
     <row r="6" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="20">
         <v>6.43</v>
@@ -6605,7 +6605,7 @@
     </row>
     <row r="7" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="20">
         <v>1.79</v>
@@ -6673,7 +6673,7 @@
     </row>
     <row r="8" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="20">
         <v>0.42</v>
@@ -6756,67 +6756,67 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>89</v>
-      </c>
       <c r="I1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="19" t="s">
-        <v>43</v>
-      </c>
       <c r="L1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="19" t="s">
+      <c r="T1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="19" t="s">
-        <v>52</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V1" s="1">
         <v>2022</v>
@@ -6824,7 +6824,7 @@
     </row>
     <row r="2" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="20">
         <v>0</v>
@@ -6892,7 +6892,7 @@
     </row>
     <row r="3" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="20">
         <v>0</v>
@@ -6960,7 +6960,7 @@
     </row>
     <row r="4" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="20">
         <v>0</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="5" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="20">
         <v>0</v>
@@ -7096,7 +7096,7 @@
     </row>
     <row r="6" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="20">
         <v>0</v>
@@ -7164,7 +7164,7 @@
     </row>
     <row r="7" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="20">
         <v>0</v>
@@ -7232,7 +7232,7 @@
     </row>
     <row r="8" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="20">
         <v>0</v>
@@ -7315,13 +7315,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1">
         <v>2021</v>
@@ -7329,7 +7329,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5">
         <v>30.3</v>
@@ -7339,7 +7339,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5">
         <v>38.9</v>
@@ -7349,7 +7349,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5">
         <v>9.1999999999999993</v>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5">
         <v>7.1</v>
@@ -7369,7 +7369,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5">
         <v>7.5</v>
@@ -7379,7 +7379,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5">
         <v>5.9</v>
@@ -7389,7 +7389,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -7414,13 +7414,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1">
         <v>2021</v>
@@ -7428,7 +7428,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5">
         <v>2.7</v>
@@ -7438,7 +7438,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5">
         <v>39.799999999999997</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5">
         <v>12.6</v>
@@ -7458,7 +7458,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5">
         <v>28.6</v>
@@ -7468,7 +7468,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5">
         <v>9.3000000000000007</v>
@@ -7478,7 +7478,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5">
         <v>6.7</v>
@@ -7488,7 +7488,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5">
         <v>0.3</v>
@@ -7513,13 +7513,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D1" s="1">
         <v>2022</v>
@@ -7527,7 +7527,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5">
         <v>41.22</v>
@@ -7537,7 +7537,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5">
         <v>36.57</v>
@@ -7547,7 +7547,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5">
         <v>4.82</v>
@@ -7557,7 +7557,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5">
         <v>6.99</v>
@@ -7567,7 +7567,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5">
         <v>5.34</v>
@@ -7577,7 +7577,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5">
         <v>3.91</v>
@@ -7587,7 +7587,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5">
         <v>1.1499999999999999</v>
@@ -7612,13 +7612,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1">
         <v>2022</v>
@@ -7626,7 +7626,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5">
         <v>23.86</v>
@@ -7636,7 +7636,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5">
         <v>42.76</v>
@@ -7646,7 +7646,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5">
         <v>9.59</v>
@@ -7656,7 +7656,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5">
         <v>8.42</v>
@@ -7666,7 +7666,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5">
         <v>8.2100000000000009</v>
@@ -7676,7 +7676,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5">
         <v>6.24</v>
@@ -7686,7 +7686,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5">
         <v>0.92</v>
@@ -7711,13 +7711,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1">
         <v>2022</v>
@@ -7725,7 +7725,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5">
         <v>3.51</v>
@@ -7735,7 +7735,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5">
         <v>45.38</v>
@@ -7745,7 +7745,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5">
         <v>2.72</v>
@@ -7755,7 +7755,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5">
         <v>27.49</v>
@@ -7765,7 +7765,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5">
         <v>11.45</v>
@@ -7775,7 +7775,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5">
         <v>8.3000000000000007</v>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5">
         <v>1.1499999999999999</v>
@@ -7810,13 +7810,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="D1" s="8">
         <v>2021</v>
@@ -7824,7 +7824,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5">
         <v>3.6</v>
@@ -7834,7 +7834,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5">
         <v>46</v>
@@ -7844,7 +7844,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5">
         <v>42.2</v>
@@ -7854,7 +7854,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5">
         <v>3.8</v>
@@ -7864,7 +7864,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5">
         <v>3.7</v>
@@ -7874,7 +7874,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5">
         <v>0.7</v>
@@ -7899,13 +7899,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="8">
         <v>2021</v>
@@ -7913,7 +7913,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5">
         <v>3.5</v>
@@ -7923,7 +7923,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5">
         <v>50.3</v>
@@ -7933,7 +7933,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5">
         <v>36.9</v>
@@ -7943,7 +7943,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5">
         <v>5.9</v>
@@ -7953,7 +7953,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5">
         <v>3.1</v>
@@ -7963,7 +7963,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5">
         <v>0.4</v>
